--- a/Chicago/chicago.xlsx
+++ b/Chicago/chicago.xlsx
@@ -432,7 +432,7 @@
     <t xml:space="preserve">Public Finance, Labor Economics</t>
   </si>
   <si>
-    <t xml:space="preserve">http://economics.uchicago.edu/directories/table/all,http://economics.uchicago.edu/directory/manasi-deshpande,https://sites.google.com/site/mdeshpandeecon/,</t>
+    <t xml:space="preserve">http://economics.uchicago.edu/directories/table/all,http://economics.uchicago.edu/directory/manasi-deshpande,https://sites.google.com/view/mdeshpande,</t>
   </si>
   <si>
     <t xml:space="preserve">Nina Hinrichs</t>
@@ -2134,7 +2134,7 @@
     <t xml:space="preserve">BA 2000 Duke University Chemistry MD 2004 University of Chicago Medicine Residency 2007 University of Chicago Internal Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=8612 http://md.uchospitals.edu/Details/804</t>
+    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=8612, http://md.uchospitals.edu/Details/804</t>
   </si>
   <si>
     <t xml:space="preserve">Sunil Narula</t>
@@ -2158,7 +2158,7 @@
     <t xml:space="preserve">BS 1993 Santa Clara University Biology BS 1994 FUHS/Chicago Medical School App. Physiology MD 1997 FUHS/Chicago Medical School Internal Medicine Residency 2000 Rush Presbyterian-St. Luke's Medical Center Internal Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12086 http://www.uchospitals.edu/physicians/sunil-narula.html</t>
+    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12086, http://www.uchospitals.edu/physicians/sunil-narula.html</t>
   </si>
   <si>
     <t xml:space="preserve">Samir D. Undevia</t>
@@ -2185,7 +2185,7 @@
     <t xml:space="preserve">BS 1992 Cornell University Electrical Engineering MD 1997 New York University Medicine Residency 2000 The University of Chicago Internal Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.uchospitals.edu/physicians/samir-undevia.html http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=5572</t>
+    <t xml:space="preserve">http://www.uchospitals.edu/physicians/samir-undevia.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=5572</t>
   </si>
   <si>
     <t xml:space="preserve">Veena Bhamre</t>
@@ -6497,7 +6497,7 @@
     <t xml:space="preserve">PhD, University of Baroda, India, Physiology D.Sc., Ruhr-Universitat, Bochum, Germany, Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=10270 http://cmp.bsd.uchicago.edu/people/faculty/nanduri_prabhakar_profile.shtml</t>
+    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=10270</t>
   </si>
   <si>
     <t xml:space="preserve">Raaj Sah</t>
@@ -6733,7 +6733,7 @@
     <t xml:space="preserve">BS 1971 Madras University, India Chemistry, Physics and Mathematics MS 1973 Madras University, India Chemistry PhD 1979 Mysore University, India Biochemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=10229 https://www.linkedin.com/in/ganesh-kumar-8a99519</t>
+    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=10229, https://www.linkedin.com/in/ganesh-kumar-8a99519</t>
   </si>
   <si>
     <t xml:space="preserve">Tanu Malik</t>
@@ -7050,7 +7050,7 @@
     <t xml:space="preserve">MD 2010 Northwestern University Medicine Residency 2013 The University of Chicago Emergency Medicine</t>
   </si>
   <si>
-    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12540 http://www.uchospitals.edu/physicians/physician.html?id=83405</t>
+    <t xml:space="preserve">http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12540, http://www.uchospitals.edu/physicians/physician.html?id=83405</t>
   </si>
   <si>
     <t xml:space="preserve">Jayasri Nanduri</t>
@@ -7095,7 +7095,7 @@
     <t xml:space="preserve">The University of Texas Medical Branch at Galveston Doctor of Medicine (MD) 2006 â€“ 2010 The University of Texas at Austin Bachelor of Arts (B.A.), Plan II Honors 2002 â€“ 2006</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.uchospitals.edu/physicians/physician.html?id=6794, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=14870 https://www.linkedin.com/in/poushali-bhattacharjee-50975452</t>
+    <t xml:space="preserve">http://www.uchospitals.edu/physicians/physician.html?id=6794, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=14870, https://www.linkedin.com/in/poushali-bhattacharjee-50975452</t>
   </si>
   <si>
     <t xml:space="preserve">Amish H. Desai</t>
@@ -8029,11 +8029,11 @@
   </sheetPr>
   <dimension ref="A1:AP264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP73" activeCellId="0" sqref="AP73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP14" activeCellId="0" sqref="AP14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9489,7 +9489,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="391" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>682</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>689</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>697</v>
       </c>
@@ -31964,7 +31964,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>1834</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>1913</v>
       </c>
@@ -34616,7 +34616,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>2011</v>
       </c>
@@ -34836,7 +34836,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>2022</v>
       </c>
@@ -37418,12 +37418,20 @@
   <hyperlinks>
     <hyperlink ref="AP2" r:id="rId1" display="http://www.chicagobooth.edu/faculty/directory/b/raghu-betina, https://www.linkedin.com/in/raghubetina"/>
     <hyperlink ref="AP5" r:id="rId2" display="https://www.linkedin.com/in/syema-sheikh-94669443,https://neurology.uchicago.edu/page/pgy-iv-residents,https://www.doximity.com/pub/syema-sheikh-md"/>
-    <hyperlink ref="AP15" r:id="rId3" display="http://people.cs.uchicago.edu/~nshinrichs/"/>
-    <hyperlink ref="AP31" r:id="rId4" display="http://www.uchospitals.edu/physicians/sachin-shah.html"/>
-    <hyperlink ref="AP32" r:id="rId5" display="http://www.uchospitals.edu/physicians/gaurav-upadhyay.html"/>
-    <hyperlink ref="AP47" r:id="rId6" display="http://www.uchospitals.edu/physicians/physician.html?id=80056"/>
-    <hyperlink ref="AP48" r:id="rId7" display="https://www.linkedin.com/in/manish-"/>
-    <hyperlink ref="AP60" r:id="rId8" display="http://www.uchospitals.edu/physicians/physician.html?id=6031"/>
+    <hyperlink ref="AP14" r:id="rId3" display="http://economics.uchicago.edu/directories/table/all,http://economics.uchicago.edu/directory/manasi-deshpande,https://sites.google.com/view/mdeshpande"/>
+    <hyperlink ref="AP15" r:id="rId4" display="http://people.cs.uchicago.edu/~nshinrichs/"/>
+    <hyperlink ref="AP31" r:id="rId5" display="http://www.uchospitals.edu/physicians/sachin-shah.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12707, https://www.linkedin.com/in/sachin-d-shah-7697186a"/>
+    <hyperlink ref="AP32" r:id="rId6" display="http://www.uchospitals.edu/physicians/gaurav-upadhyay.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=14898"/>
+    <hyperlink ref="AP47" r:id="rId7" display="http://www.uchospitals.edu/physicians/physician.html?id=80056, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=6687"/>
+    <hyperlink ref="AP48" r:id="rId8" display="http://www.uchospitals.edu/physicians/manish-sharma.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=11230, https://www.linkedin.com/in/manish-r-sharma-8596b554"/>
+    <hyperlink ref="AP60" r:id="rId9" display="http://www.uchospitals.edu/physicians/physician.html?id=6031, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=7249"/>
+    <hyperlink ref="AP78" r:id="rId10" display="http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=8612, http://md.uchospitals.edu/Details/804"/>
+    <hyperlink ref="AP79" r:id="rId11" display="http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12086, http://www.uchospitals.edu/physicians/sunil-narula.html"/>
+    <hyperlink ref="AP80" r:id="rId12" display="http://www.uchospitals.edu/physicians/samir-undevia.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=5572"/>
+    <hyperlink ref="AP216" r:id="rId13" display="http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=10270"/>
+    <hyperlink ref="AP226" r:id="rId14" display="http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=10229, https://www.linkedin.com/in/ganesh-kumar-8a99519"/>
+    <hyperlink ref="AP240" r:id="rId15" display="http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12540, http://www.uchospitals.edu/physicians/physician.html?id=83405"/>
+    <hyperlink ref="AP242" r:id="rId16" display="http://www.uchospitals.edu/physicians/physician.html?id=6794, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=14870, https://www.linkedin.com/in/poushali-bhattacharjee-50975452"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -37446,7 +37454,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -37469,7 +37477,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Chicago/chicago.xlsx
+++ b/Chicago/chicago.xlsx
@@ -1948,7 +1948,7 @@
 2008 â€“ 2012</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.igsb.org/people/stuti-agrawal,https://www.linkedin.com/in/agrawalstuti,https://www.linkedin.com/in/agrawalstuti,https://www.facebook.com/agrawalstuti7/about?lst=100001539709231%3A865025163%3A1483694052&amp;section=education&amp;pnref=about</t>
+    <t xml:space="preserve">https://www.linkedin.com/in/agrawalstuti,https://www.facebook.com/agrawalstuti7/about?lst=100001539709231%3A865025163%3A1483694052&amp;section=education&amp;pnref=about</t>
   </si>
   <si>
     <t xml:space="preserve">Sanjog Misra</t>
@@ -8029,11 +8029,11 @@
   </sheetPr>
   <dimension ref="A1:AP264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP14" activeCellId="0" sqref="AP14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP70" activeCellId="0" sqref="AP70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15685,7 +15685,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="726.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>611</v>
       </c>
@@ -37418,7 +37418,7 @@
   <hyperlinks>
     <hyperlink ref="AP2" r:id="rId1" display="http://www.chicagobooth.edu/faculty/directory/b/raghu-betina, https://www.linkedin.com/in/raghubetina"/>
     <hyperlink ref="AP5" r:id="rId2" display="https://www.linkedin.com/in/syema-sheikh-94669443,https://neurology.uchicago.edu/page/pgy-iv-residents,https://www.doximity.com/pub/syema-sheikh-md"/>
-    <hyperlink ref="AP14" r:id="rId3" display="http://economics.uchicago.edu/directories/table/all,http://economics.uchicago.edu/directory/manasi-deshpande,https://sites.google.com/view/mdeshpande"/>
+    <hyperlink ref="AP14" r:id="rId3" display="http://economics.uchicago.edu/directories/table/all,http://economics.uchicago.edu/directory/manasi-deshpande,https://sites.google.com/view/mdeshpande,"/>
     <hyperlink ref="AP15" r:id="rId4" display="http://people.cs.uchicago.edu/~nshinrichs/"/>
     <hyperlink ref="AP31" r:id="rId5" display="http://www.uchospitals.edu/physicians/sachin-shah.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=12707, https://www.linkedin.com/in/sachin-d-shah-7697186a"/>
     <hyperlink ref="AP32" r:id="rId6" display="http://www.uchospitals.edu/physicians/gaurav-upadhyay.html, http://med-spportal01.bsd.uchicago.edu/FacultyPro/faculty_profile.aspx?empl_id=14898"/>
@@ -37454,7 +37454,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -37477,7 +37477,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
